--- a/com.Demowebshop/src/test/resources/TestData/DemoData.xlsx
+++ b/com.Demowebshop/src/test/resources/TestData/DemoData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\OneDrive\Desktop\GurugramAfternoonBatch\com.Demowebshop\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAN SINGH\git\LateMorningBatch\com.Demowebshop\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0BB2C-DA50-4498-AC85-7ECE487045D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B67AA64-6A99-471E-A157-1BEE693F9E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CD584F40-2F6A-4726-A8F4-E70EB3F0E9FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CD584F40-2F6A-4726-A8F4-E70EB3F0E9FF}"/>
   </bookViews>
   <sheets>
     <sheet name="RegData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>sourav123</t>
+  </si>
+  <si>
+    <t>ajaysiwach@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay@123</t>
   </si>
 </sst>
 </file>
@@ -145,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,13 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9219BE5-2653-40E0-B717-3494F576B59F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="193" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,11 +539,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2019CE2C-AA4B-4CD9-A7A7-DB0EF7426F8B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0">
+    <sheetView zoomScale="154" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
